--- a/2025/11/2025-11-01/01_olbg_fixtures.xlsx
+++ b/2025/11/2025-11-01/01_olbg_fixtures.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fulham v Wolverhampton</t>
+          <t>Brighton v Leeds</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,29 +493,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67/90 Win Tips</t>
+          <t>112/141 Win Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brighton v Leeds</t>
+          <t>Fulham v Wolverhampton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,29 +530,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67/87 Win Tips</t>
+          <t>98/137 Win Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.80</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Burnley v Arsenal</t>
+          <t>Nottm Forest v Man Utd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,29 +567,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>58/79 Win Tips</t>
+          <t>92/128 Win Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nottm Forest v Man Utd</t>
+          <t>Burnley v Arsenal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,29 +604,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>55/76 Win Tips</t>
+          <t>90/121 Win Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Man City v Bournemouth</t>
+          <t>Liverpool v Aston Villa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,34 +636,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-02T16:30:00.000Z</t>
+          <t>2025-11-01T20:00:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35/44 Win Tips</t>
+          <t>53/97 Win Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>West Ham v Newcastle</t>
+          <t>Crystal Palace v Brentford</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,34 +673,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-02T14:00:00.000Z</t>
+          <t>2025-11-01T15:00:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>34/44 Win Tips</t>
+          <t>43/107 Win Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.60</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Liverpool v Aston Villa</t>
+          <t>Tottenham v Chelsea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,34 +710,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-01T20:00:00.000Z</t>
+          <t>2025-11-01T17:30:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30/63 Win Tips</t>
+          <t>40/92 Win Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Crystal Palace v Brentford</t>
+          <t>West Ham v Newcastle</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -747,34 +747,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-02T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27/70 Win Tips</t>
+          <t>40/51 Win Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tottenham v Chelsea</t>
+          <t>Man City v Bournemouth</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,293 +784,293 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-01T17:30:00.000Z</t>
+          <t>2025-11-02T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24/53 Win Tips</t>
+          <t>39/49 Win Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.53</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>West Brom v Sheff Wed</t>
+          <t>Real Madrid v Valencia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Spain Primera Liga</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-01T12:30:00.000Z</t>
+          <t>2025-11-01T20:00:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23/28 Win Tips</t>
+          <t>26/30 Win Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Auckland FC v Adelaide United</t>
+          <t>Heidenheim v Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Australia A League</t>
+          <t>Germany Bundesliga I</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-01T04:00:00.000Z</t>
+          <t>2025-11-01T14:30:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16/22 Win Tips</t>
+          <t>23/23 Win Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.91</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sunderland v Everton</t>
+          <t>PSG v Nice</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03T20:00:00.000Z</t>
+          <t>2025-11-01T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16/24 Win Tips</t>
+          <t>23/25 Win Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Real Madrid v Valencia</t>
+          <t>Charlton v Swansea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Spain Primera Liga</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-01T20:00:00.000Z</t>
+          <t>2025-11-01T15:00:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14/16 Win Tips</t>
+          <t>21/30 Win Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Leicester v Blackburn</t>
+          <t>Bayern Munich v Bayer Leverkusen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Germany Bundesliga I</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-01T12:30:00.000Z</t>
+          <t>2025-11-01T17:30:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12/17 Win Tips</t>
+          <t>21/24 Win Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shandong Taishan v Tianjin Jinmen Tigers</t>
+          <t>Sunderland v Everton</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>China CSL</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-01T07:30:00.000Z</t>
+          <t>2025-11-03T20:00:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11/15 Win Tips</t>
+          <t>21/32 Win Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Norwich v Hull</t>
+          <t>Napoli v Como</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-01T12:30:00.000Z</t>
+          <t>2025-11-01T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11/16 Win Tips</t>
+          <t>20/23 Win Tips</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.95</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Charlton v Swansea</t>
+          <t>Oxford Utd v Millwall</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1085,128 +1085,128 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11/16 Win Tips</t>
+          <t>19/26 Win Tips</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bayern Munich v Bayer Leverkusen</t>
+          <t>Atletico Madrid v Sevilla</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Germany Bundesliga I</t>
+          <t>Spain Primera Liga</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-01T17:30:00.000Z</t>
+          <t>2025-11-01T15:15:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11/11 Win Tips</t>
+          <t>19/22 Win Tips</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PSG v Nice</t>
+          <t>Sheff Utd v Derby</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Sheff Utd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-01T16:00:00.000Z</t>
+          <t>2025-11-01T15:00:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10/11 Win Tips</t>
+          <t>17/27 Win Tips</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.80</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Napoli v Como</t>
+          <t>Birmingham v Portsmouth</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-01T17:00:00.000Z</t>
+          <t>2025-11-01T15:00:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10/11 Win Tips</t>
+          <t>15/26 Win Tips</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.50</t>
         </is>
       </c>
     </row>
@@ -1270,12 +1270,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4/10 Win Tips</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>40</t>
+          <t>4/4 Win Tips</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">

--- a/2025/11/2025-11-01/01_olbg_fixtures.xlsx
+++ b/2025/11/2025-11-01/01_olbg_fixtures.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brighton v Leeds</t>
+          <t>Liverpool v Aston Villa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,34 +488,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-01T20:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>112/141 Win Tips</t>
+          <t>57/111 Win Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fulham v Wolverhampton</t>
+          <t>Tottenham v Chelsea</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,34 +525,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-01T17:30:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98/137 Win Tips</t>
+          <t>55/115 Win Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nottm Forest v Man Utd</t>
+          <t>West Ham v Newcastle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,34 +562,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-02T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92/128 Win Tips</t>
+          <t>41/54 Win Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Burnley v Arsenal</t>
+          <t>Man City v Bournemouth</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,39 +599,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-02T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90/121 Win Tips</t>
+          <t>39/52 Win Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Liverpool v Aston Villa</t>
+          <t>Real Madrid v Valencia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain Primera Liga</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,29 +641,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>53/97 Win Tips</t>
+          <t>27/34 Win Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Crystal Palace v Brentford</t>
+          <t>Sunderland v Everton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,540 +673,540 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-03T20:00:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>43/107 Win Tips</t>
+          <t>24/35 Win Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tottenham v Chelsea</t>
+          <t>Napoli v Como</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-01T17:30:00.000Z</t>
+          <t>2025-11-01T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>40/92 Win Tips</t>
+          <t>23/29 Win Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>West Ham v Newcastle</t>
+          <t>Bayern Munich v Bayer Leverkusen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Germany Bundesliga I</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-02T14:00:00.000Z</t>
+          <t>2025-11-01T17:30:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40/51 Win Tips</t>
+          <t>22/27 Win Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Man City v Bournemouth</t>
+          <t>Feyenoord v FC Volendam</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-02T16:30:00.000Z</t>
+          <t>2025-11-01T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>39/49 Win Tips</t>
+          <t>16/18 Win Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Real Madrid v Valencia</t>
+          <t>Monaco v Paris FC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Spain Primera Liga</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-01T20:00:00.000Z</t>
+          <t>2025-11-01T18:00:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26/30 Win Tips</t>
+          <t>15/17 Win Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Heidenheim v Eintracht Frankfurt</t>
+          <t>Cremonese v Juventus</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Germany Bundesliga I</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-01T14:30:00.000Z</t>
+          <t>2025-11-01T19:45:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23/23 Win Tips</t>
+          <t>14/22 Win Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PSG v Nice</t>
+          <t>Club Brugge v Dender</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Belgium First Division A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-01T16:00:00.000Z</t>
+          <t>2025-11-01T17:15:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23/25 Win Tips</t>
+          <t>12/14 Win Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Charlton v Swansea</t>
+          <t>Guimaraes v Benfica</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Portugal Primeira Liga</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-01T20:30:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21/30 Win Tips</t>
+          <t>9/11 Win Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bayern Munich v Bayer Leverkusen</t>
+          <t>Galatasaray v Trabzonspor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Germany Bundesliga I</t>
+          <t>Turkey Super Lig</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-01T17:30:00.000Z</t>
+          <t>2025-11-01T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21/24 Win Tips</t>
+          <t>8/10 Win Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sunderland v Everton</t>
+          <t>Auxerre v Marseille</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03T20:00:00.000Z</t>
+          <t>2025-11-01T20:05:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21/32 Win Tips</t>
+          <t>8/11 Win Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Napoli v Como</t>
+          <t>Barcelona v Elche</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Spain Primera Liga</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-01T17:00:00.000Z</t>
+          <t>2025-11-02T17:30:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20/23 Win Tips</t>
+          <t>8/8 Win Tips</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Oxford Utd v Millwall</t>
+          <t>Virtus Entella v Empoli</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-01T16:15:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>19/26 Win Tips</t>
+          <t>7/10 Win Tips</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Atletico Madrid v Sevilla</t>
+          <t>FC Copenhagen v FC Fredericia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Spain Primera Liga</t>
+          <t>Denmark Superligaen</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-01T15:15:00.000Z</t>
+          <t>2025-11-01T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>19/22 Win Tips</t>
+          <t>7/10 Win Tips</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sheff Utd v Derby</t>
+          <t>Olympiacos v Aris Salonika</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sheff Utd</t>
+          <t>Olympiacos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Greece Super League 1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-01T18:00:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17/27 Win Tips</t>
+          <t>7/9 Win Tips</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Birmingham v Portsmouth</t>
+          <t>Verona v Inter Milan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Inter Milan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-01T15:00:00.000Z</t>
+          <t>2025-11-02T11:30:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15/26 Win Tips</t>
+          <t>7/7 Win Tips</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
